--- a/New Communications Template.xlsx
+++ b/New Communications Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Itachi\Desktop\ro7communications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F669A48-13BD-4B37-A746-984C57A356BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B978C2-D0A8-426F-85A0-FACE28058362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BEB3679D-32BD-486C-BA75-C9FE34832765}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:I245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
